--- a/data/trans_bre/P18_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>390,6%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>368,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>129,83%</t>
+          <t>213,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,83%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>255,72%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 18,38</t>
+          <t>-38,19; 20,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,44</t>
+          <t>2,36; 24,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 10,4</t>
+          <t>-2,8; 18,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 11,29</t>
+          <t>-7,56; 10,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,43; 193,89</t>
+          <t>-1,4; 21,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,62; —</t>
+          <t>-74,14; 213,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 625,32</t>
+          <t>-35,94; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,55; 714,61</t>
+          <t>-75,44; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-76,81; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>29,5%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-22,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-75,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,52</t>
+          <t>-4,85; 7,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,33</t>
+          <t>-1,56; 5,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,14</t>
+          <t>-3,17; 6,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,57</t>
+          <t>-6,31; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 84,71</t>
+          <t>-8,29; -0,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 340,59</t>
+          <t>-46,96; 144,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 273,55</t>
+          <t>-61,87; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 252,93</t>
+          <t>-49,43; 233,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-75,86; 114,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 89,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>-0,2</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-34,59%</t>
+          <t>-16,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-45,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,69</t>
+          <t>-6,05; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,23</t>
+          <t>-3,11; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,19</t>
+          <t>-6,45; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 1,91</t>
+          <t>-6,0; 1,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 99,38</t>
+          <t>-3,48; 4,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,65; 155,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 220,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,36; 165,73</t>
+          <t>-79,26; 162,61</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 65,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 209,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 142,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 133,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,8%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>114,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-21,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 4,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 4,91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 4,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 1,95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 3,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-53,56; 65,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,85; 484,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-34,11; 133,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-63,37; 83,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-59,19; 174,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,88</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>368,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>213,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>34,83%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>255,72%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.08619939023961076</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.7031541175455</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.906668820874963</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6213342961318015</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>8.870623899891195</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.003130510473223629</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.715643393171496</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.089716153206575</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1220993183264885</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.908819485153898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-38,19; 20,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 24,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 18,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 10,2</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 21,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-74,14; 213,02</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-35,94; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-75,44; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-76,81; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-38.19182697078134</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.117498233756335</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.31820329712042</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.44175369815923</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5125327616542379</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7414072933443598</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2981365243917372</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.9208931358984668</v>
+      </c>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="n">
+        <v>-0.7816914097396486</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.57850002705119</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.68773432643775</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.81943054425028</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.202840346917775</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>23.5048589806673</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.130235556533898</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>77,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,5%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-22,95%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-75,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 7,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 5,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 6,26</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 2,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; -0,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,96; 144,31</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-61,87; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,43; 233,43</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-75,86; 114,03</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 89,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.6756985677894844</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.702381456455059</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.305670922111703</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.377384941906506</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-2.8626806973184</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.08524245287623479</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8148687248217565</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2618441814940193</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2524846800404804</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.7508881442664248</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-16,45%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-15,53%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-21,42%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-45,34%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>28,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.852891019185703</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.723677506242756</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.399308937227704</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.330307978552686</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-7.426034314007654</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4695550042685718</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6602761398407698</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5359962705062936</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.766799653657638</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 3,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 2,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 3,27</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 1,65</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 4,56</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-76,65; 155,21</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-79,26; 162,61</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.029708879176616</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.257784762189293</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.966240446953541</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.774170001650941</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.06651049396869772</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.443120387260062</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>2.305806881015692</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.066060116835837</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.142890337980903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +867,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.8426241779451289</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.08923941717215461</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.550572019937187</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.296177738468399</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4134099551065248</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1645168694398474</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.07827606869597971</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3942967604555777</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4490325099653717</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1600227875594103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.050818446296631</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.586365326495048</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.22796837628747</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.633809793364658</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-4.270774407318966</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7664901780736808</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.854529530804667</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.542700667339919</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.048929495938943</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.184241689871273</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.613809655951743</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.136949577797415</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.552062900283129</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.881175048459206</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,8%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>114,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-21,63%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 4,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 4,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 4,48</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 1,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 3,55</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-53,56; 65,74</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 484,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-34,11; 133,79</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-63,37; 83,6</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-59,19; 174,94</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.2659950833843225</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.286327054935075</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6292881356099913</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.15568692999737</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5406513152794022</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0279880582443463</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.222038196569038</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1104436413536477</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2563245946040523</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1649844427381252</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.190399216491489</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.06981101786092053</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.758429416486968</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.309818242020256</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.217709233207018</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5355781677116406</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.132885936830775</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4572256639128049</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.656256195198915</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.5230419874838816</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.342451921706141</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.006599502392331</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.056486358042651</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.673865658295716</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.081618883915826</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6573687513823572</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.285086645791629</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.023855772364886</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7552585115220102</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.611622846046414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
